--- a/ig/ch-term/ValueSet-ch-vacd-vaccines-vs.xlsx
+++ b/ig/ch-term/ValueSet-ch-vacd-vaccines-vs.xlsx
@@ -7,15 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from CH VACD Swissmed" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from CH VACD Old Swis" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="441">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -77,7 +77,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -110,7 +110,7 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>#787859002</t>
+    <t>787859002</t>
   </si>
   <si>
     <t>Vaccine product (medicinal product)</t>
@@ -542,7 +542,7 @@
     <t>60129</t>
   </si>
   <si>
-    <t>Prevenar 13</t>
+    <t>Prevenar</t>
   </si>
   <si>
     <t>59147</t>
@@ -680,7 +680,7 @@
     <t>68473</t>
   </si>
   <si>
-    <t>Nuvaxovid 0.5 ml, Injektionsdispersion</t>
+    <t>Nuvaxovid 0.5 ml</t>
   </si>
   <si>
     <t>68358</t>
@@ -764,7 +764,7 @@
     <t>69189</t>
   </si>
   <si>
-    <t>Spikevax Bivalent Original / Omicron BA.4-5, dispersion for injection</t>
+    <t>Spikevax Bivalent Original / Omicron BA.4-5</t>
   </si>
   <si>
     <t>69211</t>
@@ -776,13 +776,13 @@
     <t>68752</t>
   </si>
   <si>
-    <t>Vaxneuvance, Injektionssuspension</t>
+    <t>Vaxneuvance</t>
   </si>
   <si>
     <t>69465</t>
   </si>
   <si>
-    <t>Spikevax XBB.1.5 0.10 mg/ml, Dispersion zur Injektion</t>
+    <t>Spikevax XBB.1.5 0.10 mg/ml</t>
   </si>
   <si>
     <t>69484</t>
@@ -791,7 +791,67 @@
     <t>69488</t>
   </si>
   <si>
-    <t>Comirnaty Omicron XBB.1.5 (30 Mikrogramm)/Dosis, Injektionsdispersion</t>
+    <t>Comirnaty Omicron XBB.1.5 (30 Mikrogramm)/Dosis</t>
+  </si>
+  <si>
+    <t>69310</t>
+  </si>
+  <si>
+    <t>AREXVY</t>
+  </si>
+  <si>
+    <t>69173</t>
+  </si>
+  <si>
+    <t>Jynneos</t>
+  </si>
+  <si>
+    <t>69222</t>
+  </si>
+  <si>
+    <t>Prevenar 20</t>
+  </si>
+  <si>
+    <t>69815</t>
+  </si>
+  <si>
+    <t>Comirnaty Omicron XBB.1.5, 0.042 mg</t>
+  </si>
+  <si>
+    <t>69403</t>
+  </si>
+  <si>
+    <t>Qdenga 0.5 ml</t>
+  </si>
+  <si>
+    <t>69913</t>
+  </si>
+  <si>
+    <t>Comirnaty JN.1 0.042 mg, Injektionsdispersion in einer Fertigspritze, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69912-01</t>
+  </si>
+  <si>
+    <t>Comirnaty JN.1 30 μg, Injektionsdispersion, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69912-02</t>
+  </si>
+  <si>
+    <t>Comirnaty JN.1 10 μg, Injektionsdispersion, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69691</t>
+  </si>
+  <si>
+    <t>Abrysvo, Pulver und Lösungsmittel zur Herstellung einer Injektionslösung, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69788</t>
+  </si>
+  <si>
+    <t>Spikevax JN.1 (mRNA-1273.167), 0.10mg/ml, Dispersion zur Injektion, Moderna Switzerland GmbH</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-vacd/CodeSystem/ch-vacd-swissmedic-cs</t>
@@ -1603,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2519,18 +2579,98 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>33</v>
+        <v>260</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B115" t="s" s="2">
-        <v>259</v>
+      <c r="B125" t="s" s="2">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2560,642 +2700,642 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>311</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>313</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>319</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>349</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>359</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>361</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>373</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>375</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>377</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>379</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>381</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>383</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>385</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>387</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>389</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>391</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>393</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>397</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>399</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>403</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>405</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>415</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>417</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>419</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82">
@@ -3211,7 +3351,7 @@
         <v>34</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-term/ValueSet-ch-vacd-vaccines-vs.xlsx
+++ b/ig/ch-term/ValueSet-ch-vacd-vaccines-vs.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -44,7 +44,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH VACD Swissmedic code for vaccine code</t>
+    <t>CH VACD Swissmedic code for VaccineCode</t>
   </si>
   <si>
     <t>Status</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -77,7 +77,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
